--- a/biology/Zoologie/Helicella/Helicella.xlsx
+++ b/biology/Zoologie/Helicella/Helicella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helicella est un genre d'escargots à coquille spiralée et plate. Sa corpulence lui permet de se glisser entre les branches d'arbre sans trop de difficultés. Cette dernière lui offre également un camouflage idéal, dans son environnement. On pourrait considérer l'Helicella comme un genre d’escargots exotiques, mais il n'en est rien.
 </t>
@@ -513,17 +525,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon ITIS &amp; ADW
-Helicella obvia Menke, 1828
-Selon NCBI  (26 février 2024)[1] :
+          <t>Selon ITIS &amp; ADW</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Helicella obvia Menke, 1828
+Selon NCBI  (26 février 2024) :
 Helicella candoni
 Helicella iberica
 Helicella itala Linnaeus, 1758
 Helicella ordunensis
 Helicella orzai
-Helicella stiparum
-Selon FaEu &amp; IUCN
-Helicella bolenensis Locard, 1882
+Helicella stiparum</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Helicella</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicella</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon FaEu &amp; IUCN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Helicella bolenensis Locard, 1882
 Helicella cistorum Morelet, 1845
 Helicella iberica Rambur, 1869
 Helicella itala Linnaeus, 1758
